--- a/GGFPortal/ExcelUpLoad/VN/Sample車縫.xlsx
+++ b/GGFPortal/ExcelUpLoad/VN/Sample車縫.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\工作\需求資料\20161220越南匯入EXCEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\GGFPortal\GGFPortal\ExcelUpLoad\VN\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
   <si>
     <r>
       <t xml:space="preserve">GREAT  GLOBAL INTERNATIONAL CO.,LTD </t>
@@ -245,6 +245,15 @@
     <t>百分比</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>QC檢驗數量 Tổng hàng kiểm</t>
+  </si>
+  <si>
+    <t>瑕疵數 hàng lỗi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">上線天數 Số ngày lên </t>
+  </si>
 </sst>
 </file>
 
@@ -258,7 +267,7 @@
     <numFmt numFmtId="179" formatCode="\+0_ ;[Red]\-0"/>
     <numFmt numFmtId="180" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -478,14 +487,14 @@
     <xf numFmtId="180" fontId="11" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -773,70 +782,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC11"/>
+  <dimension ref="A1:AF11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AD3" sqref="AD3:AF3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:29" s="3" customFormat="1" ht="36.75">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:32" s="3" customFormat="1" ht="36.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
       <c r="V1" s="1"/>
       <c r="W1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="3" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:32" s="3" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
       <c r="V2" s="4"/>
     </row>
-    <row r="3" spans="1:29" s="6" customFormat="1" ht="76.5" customHeight="1">
+    <row r="3" spans="1:32" s="6" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
@@ -924,8 +933,17 @@
       <c r="AC3" s="15" t="s">
         <v>30</v>
       </c>
+      <c r="AD3" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE3" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF3" s="15" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -960,7 +978,7 @@
       <c r="K4" s="17">
         <v>9</v>
       </c>
-      <c r="L4" s="22">
+      <c r="L4" s="20">
         <v>1</v>
       </c>
       <c r="M4">
@@ -1019,7 +1037,7 @@
         <v>-1636.0352639387988</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -1054,7 +1072,7 @@
       <c r="K5" s="17">
         <v>9</v>
       </c>
-      <c r="L5" s="22"/>
+      <c r="L5" s="20"/>
       <c r="M5">
         <f t="shared" si="0"/>
         <v>35160871.200000003</v>
@@ -1114,7 +1132,7 @@
         <v>-2471.6392579743706</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -1149,7 +1167,7 @@
       <c r="K6" s="17">
         <v>9</v>
       </c>
-      <c r="L6" s="22">
+      <c r="L6" s="20">
         <v>1</v>
       </c>
       <c r="M6">
@@ -1208,7 +1226,7 @@
         <v>2016.0613714113404</v>
       </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -1243,7 +1261,7 @@
       <c r="K7" s="17">
         <v>9</v>
       </c>
-      <c r="L7" s="22">
+      <c r="L7" s="20">
         <v>0.8</v>
       </c>
       <c r="M7">
@@ -1302,7 +1320,7 @@
         <v>-779.70821714580143</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -1337,7 +1355,7 @@
       <c r="K8" s="17">
         <v>9</v>
       </c>
-      <c r="L8" s="22">
+      <c r="L8" s="20">
         <v>1</v>
       </c>
       <c r="M8">
@@ -1399,7 +1417,7 @@
         <v>698.67234802024007</v>
       </c>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -1434,7 +1452,7 @@
       <c r="K9" s="17">
         <v>9</v>
       </c>
-      <c r="L9" s="22">
+      <c r="L9" s="20">
         <v>1</v>
       </c>
       <c r="M9">
@@ -1493,7 +1511,7 @@
         <v>-2562.1930528958087</v>
       </c>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -1528,7 +1546,7 @@
       <c r="K10" s="17">
         <v>9</v>
       </c>
-      <c r="L10" s="22">
+      <c r="L10" s="20">
         <v>1</v>
       </c>
       <c r="M10">
@@ -1587,7 +1605,7 @@
         <v>-1197.1851022675705</v>
       </c>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="I11">
         <f>SUM(I4:I10)</f>
         <v>173.77777777777777</v>
